--- a/assets/dataFiles/Dropping Duty (Fixed).xlsx
+++ b/assets/dataFiles/Dropping Duty (Fixed).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB49BC-5F5B-4C1E-A735-15BBC0B4A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D6E2B-A2CA-4F35-957A-9851D1824A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="14" activeTab="15" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="91">
   <si>
     <t>INDICA NON A/C</t>
   </si>
@@ -244,84 +244,6 @@
     <t>Dropping Duty ( FIXED ) - One way</t>
   </si>
   <si>
-    <t>1. Alleppey, Kerala</t>
-  </si>
-  <si>
-    <t>2. Bangalore Airport, Karnataka</t>
-  </si>
-  <si>
-    <t>4. Calicut Airport, Kerala</t>
-  </si>
-  <si>
-    <t>6. Chennai Airport</t>
-  </si>
-  <si>
-    <t>7. Chennai City</t>
-  </si>
-  <si>
-    <t>8. Cochin Airport, Kerala</t>
-  </si>
-  <si>
-    <t>9. Cochin City, Kerala</t>
-  </si>
-  <si>
-    <t>10. Coimbatore</t>
-  </si>
-  <si>
-    <t>11. Coimbatore Airport</t>
-  </si>
-  <si>
-    <t>12. Coorg, Karnataka</t>
-  </si>
-  <si>
-    <t>13. Erode</t>
-  </si>
-  <si>
-    <t>14. Hassan, Karnataka</t>
-  </si>
-  <si>
-    <t>15. Kabini - Nagarhole, Karnataka</t>
-  </si>
-  <si>
-    <t>16. Kanyakumari</t>
-  </si>
-  <si>
-    <t>17. Kodaikanal</t>
-  </si>
-  <si>
-    <t>18. Kumarakom, Kerala</t>
-  </si>
-  <si>
-    <t>19. Madurai</t>
-  </si>
-  <si>
-    <t>20. Mangalore, Karnataka</t>
-  </si>
-  <si>
-    <t>21. Mettupalayam to Masinagudi</t>
-  </si>
-  <si>
-    <t>22. Mettupalayam</t>
-  </si>
-  <si>
-    <t>23. Munnar Club Mahindra, Kerala</t>
-  </si>
-  <si>
-    <t>24. Munnar, Kerala</t>
-  </si>
-  <si>
-    <t>26. Palani</t>
-  </si>
-  <si>
-    <t>28. Salem</t>
-  </si>
-  <si>
-    <t>29. Thiruvananthapuram, Kerala</t>
-  </si>
-  <si>
-    <t>31. Wayanad, Kerala</t>
-  </si>
-  <si>
     <t>BOOK NOW</t>
   </si>
   <si>
@@ -334,24 +256,6 @@
     <t>Dropping Duty</t>
   </si>
   <si>
-    <t>3. Bangalore City, Karnataka</t>
-  </si>
-  <si>
-    <t>5. Calicut City, Kerala</t>
-  </si>
-  <si>
-    <t>32. Yercaud</t>
-  </si>
-  <si>
-    <t>30. Tiruppur</t>
-  </si>
-  <si>
-    <t>27. Rameswaram</t>
-  </si>
-  <si>
-    <t>25. Mysore, Karnataka</t>
-  </si>
-  <si>
     <t>Erode</t>
   </si>
   <si>
@@ -383,6 +287,81 @@
   </si>
   <si>
     <t>Dropping Duty ( FIXED ) - One way - YERCAUD</t>
+  </si>
+  <si>
+    <t>Alleppey, Kerala</t>
+  </si>
+  <si>
+    <t>Bangalore Airport, Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore City, Karnataka</t>
+  </si>
+  <si>
+    <t>Calicut Airport, Kerala</t>
+  </si>
+  <si>
+    <t>Calicut City, Kerala</t>
+  </si>
+  <si>
+    <t>Chennai Airport</t>
+  </si>
+  <si>
+    <t>Chennai City</t>
+  </si>
+  <si>
+    <t>Cochin Airport, Kerala</t>
+  </si>
+  <si>
+    <t>Cochin City, Kerala</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Coimbatore Airport</t>
+  </si>
+  <si>
+    <t>Coorg, Karnataka</t>
+  </si>
+  <si>
+    <t>Hassan, Karnataka</t>
+  </si>
+  <si>
+    <t>Kabini - Nagarhole, Karnataka</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>Kodaikanal</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Mettupalayam</t>
+  </si>
+  <si>
+    <t>Munnar, Kerala</t>
+  </si>
+  <si>
+    <t>Mysore, Karnataka</t>
+  </si>
+  <si>
+    <t>Palani</t>
+  </si>
+  <si>
+    <t>Rameswaram</t>
+  </si>
+  <si>
+    <t>Tiruppur</t>
+  </si>
+  <si>
+    <t>Wayanad, Kerala</t>
+  </si>
+  <si>
+    <t>Yercaud</t>
   </si>
 </sst>
 </file>
@@ -392,7 +371,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +388,14 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -621,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -674,6 +661,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B261F1-120C-4F28-ACA7-B4A7A90664B0}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,167 +1000,167 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1213,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1370,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1544,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1711,7 +1704,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -1878,7 +1871,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -1895,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF33F58E-6161-4874-83F8-FC79D50250C2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,14 +1914,14 @@
       <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2093,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -2481,10 +2474,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2495,7 +2488,7 @@
         <v>5500</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,7 +2499,7 @@
         <v>5800</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2510,7 @@
         <v>6000</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,7 +2521,7 @@
         <v>6200</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2532,7 @@
         <v>6600</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,7 +2543,7 @@
         <v>6500</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2554,7 @@
         <v>7000</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,7 +2565,7 @@
         <v>7500</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,7 +2576,7 @@
         <v>8000</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2594,7 +2587,7 @@
         <v>8500</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2641,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2802,12 +2795,12 @@
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2820,7 +2813,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,7 +2900,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -2957,7 +2950,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3104,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -3154,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3501,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3866,7 +3859,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +4018,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +4063,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4212,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -4239,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,7 +4401,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4572,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4729,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4899,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,7 +5051,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5222,7 +5215,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/dataFiles/Dropping Duty (Fixed).xlsx
+++ b/assets/dataFiles/Dropping Duty (Fixed).xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772D6E2B-A2CA-4F35-957A-9851D1824A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7773F-11D7-46A7-93B3-8DBF0E0ED29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" activeTab="1" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="5" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="8" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="2" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="12" r:id="rId13"/>
     <sheet name="Sheet14" sheetId="13" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="14" r:id="rId15"/>
@@ -59,7 +59,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -608,9 +607,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,13 +630,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -653,6 +651,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,12 +665,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -989,9 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B261F1-120C-4F28-ACA7-B4A7A90664B0}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,167 +995,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1171,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20C48CC-F368-4FB4-AD79-099275F3DCD4}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1185,144 +1181,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>5000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5300</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5700</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6500</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>6000</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7200</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7600</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>8200</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7700</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1334,163 +1325,155 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C6EBD8-9E0D-456C-B2F6-27936EDCE49C}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBA460-4927-4CF7-9143-21F380C82AF8}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>1700</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>4800</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5400</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5800</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7600</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
-        <v>3100</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6">
-        <v>4500</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7">
-        <v>4700</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B13" s="6">
+        <v>8000</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -1501,8 +1484,167 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7923CB-DF19-4BF8-BBB7-9A9D69459085}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C028AE2-415A-43E2-A33D-54ADE6C92BD5}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4800</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5200</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5700</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5800</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7800</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262838BF-8A4D-47CA-BACE-53D1FF441B08}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -1516,311 +1658,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>1700</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
-        <v>1800</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>1900</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>1950</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5">
+        <v>5400</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>2100</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>2400</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6">
-        <v>2700</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262838BF-8A4D-47CA-BACE-53D1FF441B08}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4500</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4800</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5200</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6800</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7500</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1842,11 +1812,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1870,11 +1840,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1900,145 +1870,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4300</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>4500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4800</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4700</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5000</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>5800</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6300</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5500</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5400</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
@@ -2065,145 +2031,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>9000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>9500</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9800</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>11000</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>11500</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>12500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>13000</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>13600</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>14200</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2233,148 +2195,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4800</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5300</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5400</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5600</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5500</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6800</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7500</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>9000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2426,11 +2388,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2441,159 +2403,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B8634-4D10-4E2F-A0C7-3830F1EF54BC}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C6EBD8-9E0D-456C-B2F6-27936EDCE49C}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>5500</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
+      <c r="B4" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6200</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6600</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6500</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>51</v>
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2700</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>51</v>
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3100</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
+      <c r="A12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7">
-        <v>8500</v>
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4700</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2620,145 +2577,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5300</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5500</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5800</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5600</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6800</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7000</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7200</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7500</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2789,88 +2742,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="M1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2899,11 +2848,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2929,145 +2878,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1200</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1300</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1350</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1400</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1450</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1700</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1800</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2000</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2500</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2800</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3096,11 +3041,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3126,145 +3071,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4800</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5500</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5900</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5700</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6800</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>7000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7500</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3295,148 +3236,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2800</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3300</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3400</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3600</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3500</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4800</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>4900</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5000</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>7000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3480,145 +3421,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3500</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3800</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4000</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4200</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>4100</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4800</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>5000</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5200</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5500</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3649,145 +3586,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>8000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>8500</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>9000</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>9800</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>10800</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>10300</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>11500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>11800</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>12300</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>12800</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3823,160 +3756,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C028AE2-415A-43E2-A33D-54ADE6C92BD5}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7923CB-DF19-4BF8-BBB7-9A9D69459085}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>4800</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5200</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5">
+        <v>1900</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>5700</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5">
+        <v>2100</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5">
+        <v>2400</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>7800</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2700</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5">
+        <v>2800</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7">
-        <v>8500</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3000</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -4042,145 +3973,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3300</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3600</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3800</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3700</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4000</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4500</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>4800</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5200</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4211,145 +4138,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>4800</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5300</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5500</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>5800</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5650</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6300</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>6500</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>6800</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7000</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4365,8 +4288,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBA460-4927-4CF7-9143-21F380C82AF8}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B8634-4D10-4E2F-A0C7-3830F1EF54BC}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
@@ -4379,145 +4302,140 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
-        <v>4800</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
+      <c r="B4" s="4">
+        <v>5500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
+      <c r="B5" s="5">
+        <v>5800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
+      <c r="B6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
+      <c r="B7" s="5">
+        <v>6200</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>5800</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
+      <c r="B8" s="5">
+        <v>6600</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>5600</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
+      <c r="B9" s="5">
+        <v>6500</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7000</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7500</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <v>7600</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
+      <c r="B12" s="5">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7">
-        <v>8000</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>8500</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4530,7 +4448,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F52F145-658E-4DFF-A6DB-61CB19435BC0}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -4544,144 +4462,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3000</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3200</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3600</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>3800</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3700</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4500</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4800</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5500</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4694,7 +4607,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884A6FCE-0987-4375-940D-DE18E48918F1}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -4708,144 +4621,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3200</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>3500</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3700</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3800</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4000</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3900</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>4600</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4900</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5100</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>5500</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4871,137 +4779,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>9500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>10000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>10500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>11000</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>11500</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>13000</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>13500</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>14000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>14800</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5016,7 +4924,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D99597-92CF-4BF9-8FA1-B81755765158}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -5030,144 +4938,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>9500</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>10000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>10500</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>11000</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>12100</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>11500</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>13000</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>13500</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>14000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>14800</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5180,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C442CC5-5D77-40FD-8D10-02E6F4C02371}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -5194,144 +5097,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4800</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>5000</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5400</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>5500</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>6200</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>5800</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>7000</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7400</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>8000</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7800</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/assets/dataFiles/Dropping Duty (Fixed).xlsx
+++ b/assets/dataFiles/Dropping Duty (Fixed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7773F-11D7-46A7-93B3-8DBF0E0ED29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35D942-9FD4-4E5C-B39D-17D3416237B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" activeTab="1" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="7" activeTab="14" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="98">
   <si>
     <t>INDICA NON A/C</t>
   </si>
@@ -110,29 +110,9 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>ALLEPPEY PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>INNOVA NON A/C</t>
   </si>
   <si>
-    <t>BANGALORE CITY PRICE
-( Same price for pick )</t>
-  </si>
-  <si>
-    <t>CALICUT AIRPORT PRICE
-( Same price for pick )</t>
-  </si>
-  <si>
-    <t>CHENNAI CITY PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>COCHIN AIRPORT PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>INDIGA A/C</t>
   </si>
   <si>
@@ -145,101 +125,33 @@
     <t>SWIFT DIZER NON A/C</t>
   </si>
   <si>
-    <t>COCHIN CITY PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>COIMBATORE CITY 
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>TEMPO TRAVELLER NON A/C</t>
   </si>
   <si>
     <t>MAXI CABS</t>
   </si>
   <si>
-    <t>COIMBATORE AIRPORT
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>INDICA A/C</t>
   </si>
   <si>
     <t>TAVERA</t>
   </si>
   <si>
-    <t>BANGALORE AIRPORT PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>CALICUT CITY PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>COORG PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>KABINI CITY PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>XYLO NON A/C</t>
   </si>
   <si>
     <t>INDIGO A/C</t>
   </si>
   <si>
-    <t>KANYAKUMARI PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>KODAIKANAL PRICE
-(Same for one way fixed dropping price)</t>
-  </si>
-  <si>
     <t>TEMPO TRAVELLER A/C</t>
   </si>
   <si>
-    <t>MADURAI PRICE
-( Same price for pick )</t>
-  </si>
-  <si>
     <t>INDIGO NON A/C</t>
   </si>
   <si>
-    <t>METTUPALAYAM PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>MUNNAR PRICE
-( Same price for pick )</t>
-  </si>
-  <si>
-    <t>MYSORE PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
     <t>TEMPO TRAVELLER</t>
   </si>
   <si>
-    <t>PALANI PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>RAMESHWARAM PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>WAYANAD PRICE
-(Same price for pick)</t>
-  </si>
-  <si>
-    <t>YERCAUD PRICE
-( Same price for pick )</t>
-  </si>
-  <si>
     <t>Dropping Duty ( FIXED ) - One way</t>
   </si>
   <si>
@@ -279,15 +191,6 @@
     <t>Thiruvananthapuram, Kerala</t>
   </si>
   <si>
-    <t>Tirupur</t>
-  </si>
-  <si>
-    <t>MANGALORE PRICE</t>
-  </si>
-  <si>
-    <t>Dropping Duty ( FIXED ) - One way - YERCAUD</t>
-  </si>
-  <si>
     <t>Alleppey, Kerala</t>
   </si>
   <si>
@@ -361,6 +264,198 @@
   </si>
   <si>
     <t>Yercaud</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;COIMBATORE CITY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;COIMBATORE AIRPORT (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;CALICUT AIRPORT (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;ALLEPPEY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;CALICUT CITY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;CHENNAI AIRPORT (Same price for pick)&lt;/p&gt;
+&lt;/div</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;CHENNAI CITY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;COCHIN AIRPORT (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;COCHIN CITY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;BANGALORE CITY (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;BANGALORE AIRPORT (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;COORG (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;KANYAKUMARI (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;ERODE (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;HASSAN KARNATAKA (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;KABINI - NAGARHOLE(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;KODAIKANAL (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;KUMARAKOM (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MADURAI (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MANGALORE(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;METTUPALAYAM to MASINAGUDI(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;METTUPALAYAM (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MUNNAR CLUB MAHINDRA (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MUNNAR (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;MYSORE (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;PALANI (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;RAMESWARAM (Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;SALEM(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;THIRUVANATHAPURAM(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;TIRUPPUR(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;WAYANAD(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+&lt;h5&gt;Info&lt;/h5&gt;
+&lt;p&gt;YERCAUD(Same price for pick)&lt;/p&gt;
+&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -996,167 +1091,167 @@
   <sheetData>
     <row r="1" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1265,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,14 +1277,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1202,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1218,7 +1313,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>5300</v>
@@ -1240,7 +1335,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>5700</v>
@@ -1251,7 +1346,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>6500</v>
@@ -1262,7 +1357,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>6000</v>
@@ -1295,7 +1390,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>8200</v>
@@ -1329,7 +1424,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1341,14 +1436,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1361,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,7 +1560,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>8000</v>
@@ -1488,7 +1583,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1500,14 +1595,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1520,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1624,7 +1719,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>8500</v>
@@ -1659,14 +1754,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1679,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1695,7 +1790,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>4800</v>
@@ -1761,7 +1856,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>7000</v>
@@ -1803,63 +1898,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5836FC-9A88-456C-8701-FD1AC94EAF90}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF424DF4-58F7-465D-9D1B-29FB641CBEDA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF33F58E-6161-4874-83F8-FC79D50250C2}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,14 +1913,212 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF424DF4-58F7-465D-9D1B-29FB641CBEDA}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF33F58E-6161-4874-83F8-FC79D50250C2}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -1891,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,7 +2147,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>4300</v>
@@ -1918,7 +2158,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>4500</v>
@@ -1929,7 +2169,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>4800</v>
@@ -1940,7 +2180,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>4700</v>
@@ -1962,7 +2202,7 @@
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <v>5800</v>
@@ -1973,7 +2213,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>6300</v>
@@ -1995,7 +2235,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6">
         <v>5400</v>
@@ -2020,7 +2260,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,14 +2272,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2052,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,7 +2424,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,14 +2436,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2216,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,7 +2472,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>4800</v>
@@ -2298,7 +2538,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>6800</v>
@@ -2331,7 +2571,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -2342,7 +2582,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>9500</v>
@@ -2353,7 +2593,7 @@
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>9500</v>
@@ -2376,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB558667-AF0B-4E06-9D70-71B47A509D6F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,14 +2629,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
+    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2406,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C6EBD8-9E0D-456C-B2F6-27936EDCE49C}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2419,14 +2667,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2439,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,7 +2703,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>1800</v>
@@ -2466,7 +2714,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>1900</v>
@@ -2477,7 +2725,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>2100</v>
@@ -2488,7 +2736,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>2000</v>
@@ -2521,7 +2769,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>3100</v>
@@ -2532,7 +2780,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>4500</v>
@@ -2543,7 +2791,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>4700</v>
@@ -2566,7 +2814,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,14 +2826,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2598,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,7 +2979,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2743,17 +2991,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2766,7 +3014,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0605C-480C-4DAC-8CFC-CEE80D6EC97E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,14 +3097,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2867,7 +3123,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,14 +3135,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2899,7 +3155,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,7 +3171,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5">
         <v>1300</v>
@@ -2926,7 +3182,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
         <v>1350</v>
@@ -2937,7 +3193,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5">
         <v>1400</v>
@@ -2948,7 +3204,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>1450</v>
@@ -2970,7 +3226,7 @@
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5">
         <v>1800</v>
@@ -2981,7 +3237,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>2000</v>
@@ -2992,7 +3248,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5">
         <v>2500</v>
@@ -3003,7 +3259,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>2800</v>
@@ -3029,10 +3285,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941D769F-E6C4-44E4-94BB-8A0EAD1DFF31}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,14 +3298,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3060,7 +3324,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,14 +3336,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3092,7 +3356,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3225,7 +3489,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,14 +3501,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3257,7 +3521,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3273,7 +3537,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>3000</v>
@@ -3339,7 +3603,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>4800</v>
@@ -3372,7 +3636,7 @@
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>7000</v>
@@ -3383,7 +3647,7 @@
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>7500</v>
@@ -3410,7 +3674,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,14 +3686,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3442,7 +3706,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3839,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,14 +3851,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3607,7 +3871,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,20 +4001,99 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2DD602-1209-4812-84DA-3B2DF69FD2C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3760,7 +4103,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3772,14 +4115,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3792,7 +4135,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3808,7 +4151,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <v>1800</v>
@@ -3874,7 +4217,7 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>2700</v>
@@ -3919,50 +4262,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F67B40C-FCFC-4BE7-8B40-E594C210533C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1D191-AC8D-4E18-A087-97925A52B24C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EA1D5A-6F57-49AB-98DF-DB8CAB0531A7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,14 +4277,212 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1D191-AC8D-4E18-A087-97925A52B24C}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EA1D5A-6F57-49AB-98DF-DB8CAB0531A7}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3994,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,7 +4628,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,14 +4640,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4159,7 +4660,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4292,7 +4793,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4304,14 +4805,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4321,10 +4822,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,7 +4836,7 @@
         <v>5500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4847,7 @@
         <v>5800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,7 +4858,7 @@
         <v>6000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4869,7 @@
         <v>6200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,7 +4880,7 @@
         <v>6600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4390,7 +4891,7 @@
         <v>6500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,7 +4902,7 @@
         <v>7000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4412,7 +4913,7 @@
         <v>7500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,7 +4924,7 @@
         <v>8000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4434,7 +4935,7 @@
         <v>8500</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4952,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4463,14 +4964,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4483,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,7 +5088,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>5500</v>
@@ -4610,7 +5111,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4622,14 +5123,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4642,7 +5143,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4746,7 +5247,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>5500</v>
@@ -4769,7 +5270,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4780,14 +5281,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4800,7 +5301,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4927,7 +5428,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4939,14 +5440,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4959,7 +5460,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5086,7 +5587,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5098,14 +5599,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -5118,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5134,7 +5635,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5">
         <v>5000</v>
@@ -5156,7 +5657,7 @@
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>5500</v>
@@ -5167,7 +5668,7 @@
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>6200</v>
@@ -5178,7 +5679,7 @@
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>5800</v>
@@ -5211,7 +5712,7 @@
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5">
         <v>8000</v>

--- a/assets/dataFiles/Dropping Duty (Fixed).xlsx
+++ b/assets/dataFiles/Dropping Duty (Fixed).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35D942-9FD4-4E5C-B39D-17D3416237B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AE803-3DE1-40B0-A4E4-56877732E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="7" activeTab="14" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="19" activeTab="32" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="98">
   <si>
     <t>INDICA NON A/C</t>
   </si>
@@ -510,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -698,11 +698,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,6 +796,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B261F1-120C-4F28-ACA7-B4A7A90664B0}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1742,7 +1801,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1960,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,59 +1985,125 @@
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1999,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF424DF4-58F7-465D-9D1B-29FB641CBEDA}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,59 +2150,125 @@
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2423,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460535BD-7009-4208-AA9D-CB8CE7E99AAB}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,164 +2632,164 @@
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="24">
         <v>4500</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="24">
         <v>4800</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="24">
         <v>5300</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="24">
         <v>5400</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="24">
         <v>5600</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="24">
         <v>5500</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="24">
         <v>6500</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="24">
         <v>6800</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="24">
         <v>7000</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="C12" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="24">
         <v>7500</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="27">
         <v>9000</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="27">
         <v>9500</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="27">
         <v>9500</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB558667-AF0B-4E06-9D70-71B47A509D6F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,6 +2831,160 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="24">
+        <v>4800</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24">
+        <v>5300</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24">
+        <v>5400</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24">
+        <v>5600</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24">
+        <v>5500</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <v>6500</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="24">
+        <v>6800</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>7000</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="24">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="27">
+        <v>9000</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="27">
+        <v>9500</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="27">
+        <v>9500</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2814,7 +3159,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B96E411-7425-41B3-98A4-8626356B9C6B}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,61 +3363,120 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5300</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5800</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3084,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0605C-480C-4DAC-8CFC-CEE80D6EC97E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,6 +3512,127 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5300</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5800</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5600</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>7500</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3123,7 +3648,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,10 +3810,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941D769F-E6C4-44E4-94BB-8A0EAD1DFF31}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,6 +3834,127 @@
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2800</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4004,7 +4650,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,59 +4675,125 @@
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2800</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4265,7 +4977,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4290,59 +5002,125 @@
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2800</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4364,7 +5142,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A3" sqref="A3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4389,59 +5167,125 @@
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1350</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1450</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1700</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2500</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2800</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4627,7 +5471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F1AB90-1324-437A-8FE4-C00CC1A22A40}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/assets/dataFiles/Dropping Duty (Fixed).xlsx
+++ b/assets/dataFiles/Dropping Duty (Fixed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjankumar.bnv\Documents\myproject\ootytaxi\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AE803-3DE1-40B0-A4E4-56877732E527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7040146-FB8D-42A7-9590-485A4179A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="19" activeTab="32" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="877" firstSheet="20" activeTab="32" xr2:uid="{18D9A20F-041F-4A92-BC95-A1AB4A0C8457}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
@@ -66,41 +66,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="98">
-  <si>
-    <t>INDICA NON A/C</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="83">
   <si>
     <t>BOOK NOW! </t>
   </si>
   <si>
-    <t>INDIGA</t>
-  </si>
-  <si>
-    <t>INDIGO</t>
-  </si>
-  <si>
-    <t>MAHENDRA LOGAN</t>
-  </si>
-  <si>
-    <t>TOYOTA EITOS</t>
-  </si>
-  <si>
-    <t>SWIFT DIZER</t>
-  </si>
-  <si>
-    <t>TAVERA NON A/C</t>
-  </si>
-  <si>
     <t>TAVERA A/C</t>
   </si>
   <si>
-    <t>XYLO</t>
-  </si>
-  <si>
-    <t>INNOVA</t>
-  </si>
-  <si>
     <t>BOOK NOW!</t>
   </si>
   <si>
@@ -110,52 +83,10 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>INNOVA NON A/C</t>
-  </si>
-  <si>
-    <t>INDIGA A/C</t>
-  </si>
-  <si>
-    <t>MAHENDRA LOGAN NON A/C</t>
-  </si>
-  <si>
-    <t>TOYOTA EITOS NON A/C</t>
-  </si>
-  <si>
-    <t>SWIFT DIZER NON A/C</t>
-  </si>
-  <si>
-    <t>TEMPO TRAVELLER NON A/C</t>
-  </si>
-  <si>
-    <t>MAXI CABS</t>
-  </si>
-  <si>
-    <t>INDICA A/C</t>
-  </si>
-  <si>
-    <t>TAVERA</t>
-  </si>
-  <si>
-    <t>XYLO NON A/C</t>
-  </si>
-  <si>
     <t>INDIGO A/C</t>
   </si>
   <si>
-    <t>TEMPO TRAVELLER A/C</t>
-  </si>
-  <si>
-    <t>INDIGO NON A/C</t>
-  </si>
-  <si>
-    <t>TEMPO TRAVELLER</t>
-  </si>
-  <si>
     <t>Dropping Duty ( FIXED ) - One way</t>
-  </si>
-  <si>
-    <t>BOOK NOW</t>
   </si>
   <si>
     <t>Book Now</t>
@@ -456,6 +387,30 @@
 &lt;h5&gt;Info&lt;/h5&gt;
 &lt;p&gt;YERCAUD(Same price for pick)&lt;/p&gt;
 &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>TATA ZEST A/C (SEDAN)</t>
+  </si>
+  <si>
+    <t>MAHENDRA LOGAN A/C</t>
+  </si>
+  <si>
+    <t>TOYOTA EITOS A/C</t>
+  </si>
+  <si>
+    <t>INNOVA A/C</t>
+  </si>
+  <si>
+    <t>INNOVA CRYSTA A/C</t>
+  </si>
+  <si>
+    <t>TEMPO TRAVELLER A/C (12+1)</t>
+  </si>
+  <si>
+    <t>MAXI CABS ( 20+1)</t>
+  </si>
+  <si>
+    <t>SWIFT DZIRE A/C</t>
   </si>
 </sst>
 </file>
@@ -481,7 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -490,13 +446,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +465,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -675,30 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -737,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -769,22 +707,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,25 +734,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B261F1-120C-4F28-ACA7-B4A7A90664B0}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,169 +1073,169 @@
     <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1321,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20C48CC-F368-4FB4-AD79-099275F3DCD4}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1335,138 +1260,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5300</v>
+        <v>7700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5500</v>
+        <v>7800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>6500</v>
+        <v>7900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>7200</v>
+        <v>10700</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7600</v>
+        <v>11500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7700</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBA460-4927-4CF7-9143-21F380C82AF8}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1494,138 +1397,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5000</v>
+        <v>7300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5400</v>
+        <v>7400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5800</v>
+        <v>7600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5600</v>
+        <v>9500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7600</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8000</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C028AE2-415A-43E2-A33D-54ADE6C92BD5}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,138 +1534,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4800</v>
+        <v>7700</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5200</v>
+        <v>7800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5700</v>
+        <v>8000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>6000</v>
+        <v>8100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5800</v>
+        <v>10500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>7500</v>
+        <v>11700</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7800</v>
+        <v>13500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1798,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262838BF-8A4D-47CA-BACE-53D1FF441B08}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,138 +1671,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5200</v>
+        <v>6850</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5600</v>
+        <v>6950</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5500</v>
+        <v>9000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6800</v>
+        <v>9500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1957,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5836FC-9A88-456C-8701-FD1AC94EAF90}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,146 +1808,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5400</v>
+        <v>4500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5600</v>
+        <v>4400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6800</v>
+        <v>5500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2122,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF424DF4-58F7-465D-9D1B-29FB641CBEDA}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,146 +1951,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5200</v>
+        <v>6900</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5600</v>
+        <v>6950</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6800</v>
+        <v>9000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7000</v>
+        <v>10200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2287,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF33F58E-6161-4874-83F8-FC79D50250C2}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,142 +2094,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+      <c r="A3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4000</v>
+        <v>5800</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4300</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>4700</v>
+        <v>6400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>5800</v>
+        <v>8300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>6300</v>
+        <v>9500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5400</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -2448,10 +2219,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A3C536-7DA1-4826-AB5F-0D43A16A2828}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,145 +2233,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>9500</v>
+        <v>13300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>9800</v>
+        <v>13500</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>11000</v>
+        <v>13800</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>12000</v>
+        <v>13700</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>11500</v>
+        <v>15800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>12500</v>
+        <v>16800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>13000</v>
+        <v>18800</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>13600</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>14200</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -2612,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460535BD-7009-4208-AA9D-CB8CE7E99AAB}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,176 +2375,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6800</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7200</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>4500</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B8" s="5">
+        <v>77400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24">
-        <v>4800</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24">
-        <v>5300</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24">
-        <v>5400</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24">
-        <v>5600</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24">
-        <v>5500</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>1</v>
+      <c r="B9" s="5">
+        <v>9000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24">
-        <v>6500</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>1</v>
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9500</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="24">
-        <v>6800</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24">
-        <v>7000</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="27">
-        <v>9000</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="27">
-        <v>9500</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="27">
-        <v>9500</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -2807,183 +2501,130 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB558667-AF0B-4E06-9D70-71B47A509D6F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>4500</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="A2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8800</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8900</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9300</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="24">
-        <v>4800</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24">
-        <v>5300</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24">
-        <v>5400</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24">
-        <v>5600</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24">
-        <v>5500</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="24">
-        <v>6500</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="24">
-        <v>6800</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="24">
-        <v>7000</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="24">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="27">
-        <v>9000</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="27">
-        <v>9500</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="27">
-        <v>9500</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>11</v>
+      <c r="B9" s="5">
+        <v>10500</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5">
+        <v>11500</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5">
+        <v>13500</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3000,7 +2641,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3011,138 +2652,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6">
-        <v>4700</v>
+        <v>7500</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3156,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB616BFE-65A3-4032-BD09-EBC58198FF19}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,146 +2811,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5300</v>
+        <v>7300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5800</v>
+        <v>7400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5600</v>
+        <v>9000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6800</v>
+        <v>10500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -3321,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B96E411-7425-41B3-98A4-8626356B9C6B}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,148 +2954,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>9800</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5000</v>
+        <v>10100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5300</v>
+        <v>10300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>10600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5800</v>
+        <v>10500</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5600</v>
+        <v>11800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6800</v>
+        <v>12800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3488,150 +3085,129 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E0605C-480C-4DAC-8CFC-CEE80D6EC97E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3300</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3700</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5300</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="B9" s="5">
+        <v>4300</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4800</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5">
         <v>5500</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5800</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5600</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6800</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5">
-        <v>7000</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3645,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85187BD6-EFC7-4952-8BCA-EEB3A7619844}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,146 +3235,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1300</v>
+        <v>1850</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -3810,150 +3384,129 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941D769F-E6C4-44E4-94BB-8A0EAD1DFF31}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1200</v>
+        <v>7500</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7600</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7700</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7900</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7800</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1300</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1350</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1400</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1450</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="B9" s="5">
-        <v>1700</v>
+        <v>9800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2000</v>
+        <v>12500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3967,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383BA3A3-8406-4A0A-AC18-30F949D59497}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCellId="1" sqref="A8 A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,146 +3534,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4800</v>
+        <v>7100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>7400</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5900</v>
+        <v>7300</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5700</v>
+        <v>9300</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>6800</v>
+        <v>12000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -4132,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09944F4D-0121-4BA5-9CC2-96798B7A323C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4146,166 +3677,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>4800</v>
+        <v>9000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4900</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5000</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>7000</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>7500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -4317,10 +3804,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC4E4A7-B3CE-4A4D-8C54-EE14D0DCD903}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,146 +3818,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>4100</v>
+        <v>6500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5200</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -4482,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC08685D-316D-49EA-9FC5-B3AC04DC8444}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,146 +3961,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>8500</v>
+        <v>12200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>9000</v>
+        <v>12300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>9800</v>
+        <v>12500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>10800</v>
+        <v>12400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>10300</v>
+        <v>14500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>11800</v>
+        <v>17500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>12300</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>12800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -4647,10 +4090,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2DD602-1209-4812-84DA-3B2DF69FD2C9}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,146 +4104,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1300</v>
+        <v>5300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1350</v>
+        <v>5400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>1400</v>
+        <v>5500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>1450</v>
+        <v>5600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>1700</v>
+        <v>6500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>1800</v>
+        <v>7300</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2000</v>
+        <v>8500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -4815,7 +4236,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4826,138 +4247,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>1950</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>2100</v>
+        <v>2900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>2000</v>
+        <v>3800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5">
-        <v>2800</v>
+        <v>6500</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6">
-        <v>3000</v>
+        <v>7500</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4974,10 +4395,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F67B40C-FCFC-4BE7-8B40-E594C210533C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,146 +4409,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1200</v>
+        <v>12500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1300</v>
+        <v>12700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1350</v>
+        <v>12800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>1450</v>
+        <v>12900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>1700</v>
+        <v>14800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>1800</v>
+        <v>15800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2000</v>
+        <v>18200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -5139,10 +4538,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1D191-AC8D-4E18-A087-97925A52B24C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C13"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5153,146 +4552,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>1300</v>
+        <v>2850</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>1350</v>
+        <v>2900</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>1450</v>
+        <v>2950</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>1700</v>
+        <v>3800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2500</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -5304,10 +4681,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42EA1D5A-6F57-49AB-98DF-DB8CAB0531A7}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,146 +4695,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>3600</v>
+        <v>4600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>3700</v>
+        <v>5800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4800</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5200</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -5469,10 +4824,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F1AB90-1324-437A-8FE4-C00CC1A22A40}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,146 +4838,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>5800</v>
+        <v>6900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5650</v>
+        <v>8500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>6300</v>
+        <v>9000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>6800</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7000</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
@@ -5634,152 +4967,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B8634-4D10-4E2F-A0C7-3830F1EF54BC}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>6200</v>
+        <v>8500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>6600</v>
+        <v>8400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>6500</v>
+        <v>10500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7500</v>
+        <v>12800</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>8500</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5793,152 +5104,130 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F52F145-658E-4DFF-A6DB-61CB19435BC0}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>3200</v>
+        <v>4350</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>3800</v>
+        <v>4600</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>3700</v>
+        <v>5800</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>4800</v>
+        <v>7500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5952,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884A6FCE-0987-4375-940D-DE18E48918F1}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5966,138 +5255,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>3200</v>
+        <v>4500</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>4600</v>
+        <v>6800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>4900</v>
+        <v>7800</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5100</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>5500</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6111,151 +5378,130 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D383737-F10F-4624-8FC3-A3C946523453}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5">
+        <v>14200</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5">
+        <v>14500</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14400</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10500</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>11000</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12100</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="B9" s="5">
-        <v>11500</v>
+        <v>16200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>14000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>14800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6269,152 +5515,130 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D99597-92CF-4BF9-8FA1-B81755765158}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>10500</v>
+        <v>14700</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>12100</v>
+        <v>14900</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>11500</v>
+        <v>16700</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>13000</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>14000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>14800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6428,10 +5652,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C442CC5-5D77-40FD-8D10-02E6F4C02371}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6442,138 +5666,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>4800</v>
+        <v>7000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5">
-        <v>5000</v>
+        <v>7200</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
-        <v>5400</v>
+        <v>7300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
-        <v>6200</v>
+        <v>7400</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5">
-        <v>5800</v>
+        <v>9500</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5">
-        <v>7000</v>
+        <v>10200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B11" s="5">
-        <v>7400</v>
+        <v>11000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6">
-        <v>7800</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
